--- a/Dataset/OR60F.xlsx
+++ b/Dataset/OR60F.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\CSP_Solver_Final\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209A5C1-4466-4ECC-9749-5E7EE1AD000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6750F3B-2507-4129-A5F9-A26EDD5B97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -2061,7 +2061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2088,12 +2088,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2161,7 +2155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2207,15 +2201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2524,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2736,9 +2721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C69255-5912-4D6E-83E6-D37C87DA9D15}">
   <dimension ref="A1:AL280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2800,73 +2785,73 @@
       <c r="O1" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="24" t="s">
         <v>673</v>
       </c>
     </row>
@@ -2883,7 +2868,7 @@
       <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -2943,7 +2928,7 @@
       <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -3008,7 +2993,7 @@
       <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -3056,7 +3041,7 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3104,7 +3089,7 @@
       <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -3152,7 +3137,7 @@
       <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -3200,7 +3185,7 @@
       <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -3248,7 +3233,7 @@
       <c r="D9" s="15">
         <v>4</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -3296,7 +3281,7 @@
       <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -3344,7 +3329,7 @@
       <c r="D11" s="15">
         <v>0</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="16" t="s">
@@ -3392,7 +3377,7 @@
       <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -3440,7 +3425,7 @@
       <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="16" t="s">
@@ -3488,7 +3473,7 @@
       <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="16" t="s">
@@ -3536,7 +3521,7 @@
       <c r="D15" s="15">
         <v>0</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -3584,7 +3569,7 @@
       <c r="D16" s="15">
         <v>0</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -3632,7 +3617,7 @@
       <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="16" t="s">
@@ -3680,7 +3665,7 @@
       <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -3745,7 +3730,7 @@
       <c r="D19" s="15">
         <v>2</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -3809,7 +3794,7 @@
       <c r="D20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -3873,7 +3858,7 @@
       <c r="D21" s="15">
         <v>4</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="16" t="s">
@@ -3937,7 +3922,7 @@
       <c r="D22" s="15">
         <v>5</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="16" t="s">
@@ -4001,7 +3986,7 @@
       <c r="D23" s="15">
         <v>6</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="16" t="s">
@@ -4065,7 +4050,7 @@
       <c r="D24" s="15">
         <v>7</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -4130,7 +4115,7 @@
       <c r="D25" s="15">
         <v>8</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -4195,7 +4180,7 @@
       <c r="D26" s="15">
         <v>9</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -4260,7 +4245,7 @@
       <c r="D27" s="15">
         <v>10</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="16" t="s">
@@ -4325,7 +4310,7 @@
       <c r="D28" s="15">
         <v>11</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -4389,7 +4374,7 @@
       <c r="D29" s="15">
         <v>12</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="16" t="s">
@@ -4453,7 +4438,7 @@
       <c r="D30" s="15">
         <v>13</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="16" t="s">
@@ -4517,7 +4502,7 @@
       <c r="D31" s="15">
         <v>14</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="16" t="s">
@@ -4582,7 +4567,7 @@
       <c r="D32" s="15">
         <v>15</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="16" t="s">
@@ -4647,7 +4632,7 @@
       <c r="D33" s="15">
         <v>16</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="16" t="s">
@@ -4713,7 +4698,7 @@
       <c r="D34" s="15">
         <v>17</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="16" t="s">
@@ -4779,7 +4764,7 @@
       <c r="D35" s="15">
         <v>18</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="16" t="s">
@@ -4845,7 +4830,7 @@
       <c r="D36" s="15">
         <v>19</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="16" t="s">
@@ -4910,7 +4895,7 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F37" s="16" t="s">
@@ -4976,7 +4961,7 @@
       <c r="D38" s="15">
         <v>21</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="16" t="s">
@@ -5042,7 +5027,7 @@
       <c r="D39" s="15">
         <v>22</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -5107,7 +5092,7 @@
       <c r="D40" s="15">
         <v>1</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="16" t="s">
@@ -5154,7 +5139,7 @@
       <c r="D41" s="15">
         <v>2</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="16" t="s">
@@ -5201,7 +5186,7 @@
       <c r="D42" s="15">
         <v>3</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F42" s="16" t="s">
@@ -5248,7 +5233,7 @@
       <c r="D43" s="15">
         <v>4</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="16" t="s">
@@ -5295,7 +5280,7 @@
       <c r="D44" s="15">
         <v>5</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F44" s="16" t="s">
@@ -5353,7 +5338,7 @@
       <c r="D45" s="15">
         <v>6</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F45" s="16" t="s">
@@ -5400,7 +5385,7 @@
       <c r="D46" s="15">
         <v>7</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F46" s="16" t="s">
@@ -5447,7 +5432,7 @@
       <c r="D47" s="15">
         <v>8</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="16" t="s">
@@ -5494,7 +5479,7 @@
       <c r="D48" s="15">
         <v>0</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F48" s="16" t="s">
@@ -5541,7 +5526,7 @@
       <c r="D49" s="15">
         <v>0</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="16" t="s">
@@ -5588,7 +5573,7 @@
       <c r="D50" s="15">
         <v>0</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="16" t="s">
@@ -5635,7 +5620,7 @@
       <c r="D51" s="15">
         <v>0</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="16" t="s">
@@ -5682,7 +5667,7 @@
       <c r="D52" s="15">
         <v>0</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F52" s="16" t="s">
@@ -5729,7 +5714,7 @@
       <c r="D53" s="15">
         <v>1</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -5776,7 +5761,7 @@
       <c r="D54" s="15">
         <v>2</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F54" s="16" t="s">
@@ -5829,7 +5814,7 @@
       <c r="D55" s="15">
         <v>1</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F55" s="16" t="s">
@@ -5893,7 +5878,7 @@
       <c r="D56" s="15">
         <v>2</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="16" t="s">
@@ -5957,7 +5942,7 @@
       <c r="D57" s="15">
         <v>3</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F57" s="16" t="s">
@@ -6021,7 +6006,7 @@
       <c r="D58" s="15">
         <v>4</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F58" s="16" t="s">
@@ -6085,7 +6070,7 @@
       <c r="D59" s="15">
         <v>5</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F59" s="16" t="s">
@@ -6149,7 +6134,7 @@
       <c r="D60" s="15">
         <v>6</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -6213,7 +6198,7 @@
       <c r="D61" s="15">
         <v>7</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F61" s="16" t="s">
@@ -6263,7 +6248,7 @@
       <c r="D62" s="15">
         <v>8</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F62" s="16" t="s">
@@ -6322,7 +6307,7 @@
       <c r="D63" s="15">
         <v>9</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="16" t="s">
@@ -6381,7 +6366,7 @@
       <c r="D64" s="15">
         <v>1</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F64" s="16" t="s">
@@ -6443,7 +6428,7 @@
       <c r="D65" s="15">
         <v>2</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F65" s="16" t="s">
@@ -6505,7 +6490,7 @@
       <c r="D66" s="15">
         <v>3</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F66" s="16" t="s">
@@ -6567,7 +6552,7 @@
       <c r="D67" s="15">
         <v>4</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F67" s="16" t="s">
@@ -6620,7 +6605,7 @@
       <c r="D68" s="15">
         <v>5</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F68" s="16" t="s">
@@ -6667,7 +6652,7 @@
       <c r="D69" s="15">
         <v>6</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F69" s="16" t="s">
@@ -6714,7 +6699,7 @@
       <c r="D70" s="15">
         <v>7</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F70" s="16" t="s">
@@ -6761,7 +6746,7 @@
       <c r="D71" s="15">
         <v>1</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="16" t="s">
@@ -6814,7 +6799,7 @@
       <c r="D72" s="15">
         <v>2</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F72" s="16" t="s">
@@ -6867,7 +6852,7 @@
       <c r="D73" s="15">
         <v>3</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F73" s="16" t="s">
@@ -6920,7 +6905,7 @@
       <c r="D74" s="15">
         <v>4</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="16" t="s">
@@ -6967,7 +6952,7 @@
       <c r="D75" s="15">
         <v>5</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F75" s="16" t="s">
@@ -7020,7 +7005,7 @@
       <c r="D76" s="15">
         <v>6</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F76" s="16" t="s">
@@ -7067,7 +7052,7 @@
       <c r="D77" s="15">
         <v>1</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F77" s="16" t="s">
@@ -7131,7 +7116,7 @@
       <c r="D78" s="15">
         <v>2</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F78" s="16" t="s">
@@ -7195,7 +7180,7 @@
       <c r="D79" s="15">
         <v>3</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F79" s="16" t="s">
@@ -7259,7 +7244,7 @@
       <c r="D80" s="15">
         <v>4</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F80" s="16" t="s">
@@ -7323,7 +7308,7 @@
       <c r="D81" s="15">
         <v>5</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="16" t="s">
@@ -7387,7 +7372,7 @@
       <c r="D82" s="15">
         <v>6</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F82" s="16" t="s">
@@ -7451,7 +7436,7 @@
       <c r="D83" s="15">
         <v>7</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F83" s="16" t="s">
@@ -7515,7 +7500,7 @@
       <c r="D84" s="15">
         <v>8</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F84" s="16" t="s">
@@ -7579,7 +7564,7 @@
       <c r="D85" s="15">
         <v>9</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F85" s="16" t="s">
@@ -7643,7 +7628,7 @@
       <c r="D86" s="15">
         <v>10</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F86" s="16" t="s">
@@ -7707,7 +7692,7 @@
       <c r="D87" s="15">
         <v>11</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F87" s="16" t="s">
@@ -7771,7 +7756,7 @@
       <c r="D88" s="15">
         <v>12</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F88" s="16" t="s">
@@ -7835,7 +7820,7 @@
       <c r="D89" s="15">
         <v>13</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F89" s="16" t="s">
@@ -7900,7 +7885,7 @@
       <c r="D90" s="15">
         <v>14</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F90" s="16" t="s">
@@ -7965,7 +7950,7 @@
       <c r="D91" s="15">
         <v>15</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F91" s="16" t="s">
@@ -8030,7 +8015,7 @@
       <c r="D92" s="15">
         <v>16</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F92" s="16" t="s">
@@ -8095,7 +8080,7 @@
       <c r="D93" s="15">
         <v>17</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F93" s="16" t="s">
@@ -8160,7 +8145,7 @@
       <c r="D94" s="15">
         <v>18</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F94" s="16" t="s">
@@ -8225,7 +8210,7 @@
       <c r="D95" s="15">
         <v>19</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F95" s="16" t="s">
@@ -8290,7 +8275,7 @@
       <c r="D96" s="15">
         <v>20</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F96" s="16" t="s">
@@ -8355,7 +8340,7 @@
       <c r="D97" s="15">
         <v>21</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F97" s="16" t="s">
@@ -8420,7 +8405,7 @@
       <c r="D98" s="15">
         <v>22</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F98" s="16" t="s">
@@ -8485,7 +8470,7 @@
       <c r="D99" s="15">
         <v>1</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F99" s="16" t="s">
@@ -8532,7 +8517,7 @@
       <c r="D100" s="15">
         <v>2</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F100" s="16" t="s">
@@ -8579,7 +8564,7 @@
       <c r="D101" s="15">
         <v>3</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F101" s="16" t="s">
@@ -8626,7 +8611,7 @@
       <c r="D102" s="15">
         <v>4</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F102" s="16" t="s">
@@ -8673,7 +8658,7 @@
       <c r="D103" s="15">
         <v>5</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F103" s="16" t="s">
@@ -8720,7 +8705,7 @@
       <c r="D104" s="15">
         <v>6</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F104" s="16" t="s">
@@ -8767,7 +8752,7 @@
       <c r="D105" s="15">
         <v>7</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F105" s="16" t="s">
@@ -8814,7 +8799,7 @@
       <c r="D106" s="15">
         <v>8</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F106" s="16" t="s">
@@ -8861,7 +8846,7 @@
       <c r="D107" s="15">
         <v>9</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F107" s="16" t="s">
@@ -8908,7 +8893,7 @@
       <c r="D108" s="15">
         <v>10</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F108" s="16" t="s">
@@ -8955,7 +8940,7 @@
       <c r="D109" s="15">
         <v>11</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F109" s="16" t="s">
@@ -9002,7 +8987,7 @@
       <c r="D110" s="15">
         <v>12</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F110" s="16" t="s">
@@ -9049,7 +9034,7 @@
       <c r="D111" s="15">
         <v>13</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F111" s="16" t="s">
@@ -9096,7 +9081,7 @@
       <c r="D112" s="15">
         <v>14</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F112" s="16" t="s">
@@ -9143,7 +9128,7 @@
       <c r="D113" s="15">
         <v>15</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F113" s="16" t="s">
@@ -9190,7 +9175,7 @@
       <c r="D114" s="15">
         <v>16</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="16" t="s">
@@ -9246,7 +9231,7 @@
       <c r="D115" s="15">
         <v>17</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F115" s="16" t="s">
@@ -9293,7 +9278,7 @@
       <c r="D116" s="15">
         <v>18</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F116" s="16" t="s">
@@ -9340,7 +9325,7 @@
       <c r="D117" s="15">
         <v>19</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F117" s="16" t="s">
@@ -9387,7 +9372,7 @@
       <c r="D118" s="15">
         <v>20</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F118" s="16" t="s">
@@ -9434,7 +9419,7 @@
       <c r="D119" s="15">
         <v>21</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F119" s="16" t="s">
@@ -9481,7 +9466,7 @@
       <c r="D120" s="15">
         <v>22</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F120" s="16" t="s">
@@ -9534,7 +9519,7 @@
       <c r="D121" s="15">
         <v>1</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F121" s="16" t="s">
@@ -9595,7 +9580,7 @@
       <c r="D122" s="15">
         <v>2</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F122" s="16" t="s">
@@ -9648,7 +9633,7 @@
       <c r="D123" s="15">
         <v>3</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F123" s="16" t="s">
@@ -9695,7 +9680,7 @@
       <c r="D124" s="15">
         <v>4</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F124" s="16" t="s">
@@ -9742,7 +9727,7 @@
       <c r="D125" s="15">
         <v>5</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F125" s="16" t="s">
@@ -9789,7 +9774,7 @@
       <c r="D126" s="15">
         <v>6</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F126" s="16" t="s">
@@ -9836,7 +9821,7 @@
       <c r="D127" s="15">
         <v>7</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F127" s="16" t="s">
@@ -9883,7 +9868,7 @@
       <c r="D128" s="15">
         <v>1</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F128" s="16" t="s">
@@ -9944,7 +9929,7 @@
       <c r="D129" s="15">
         <v>2</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F129" s="16" t="s">
@@ -10005,7 +9990,7 @@
       <c r="D130" s="15">
         <v>3</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F130" s="16" t="s">
@@ -10066,7 +10051,7 @@
       <c r="D131" s="15">
         <v>4</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F131" s="16" t="s">
@@ -10125,7 +10110,7 @@
       <c r="D132" s="15">
         <v>5</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F132" s="16" t="s">
@@ -10184,7 +10169,7 @@
       <c r="D133" s="15">
         <v>6</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F133" s="16" t="s">
@@ -10232,7 +10217,7 @@
       <c r="AK133" s="15"/>
       <c r="AL133" s="15"/>
     </row>
-    <row r="134" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>192</v>
       </c>
@@ -10245,7 +10230,7 @@
       <c r="D134" s="15">
         <v>7</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F134" s="16" t="s">
@@ -10293,20 +10278,20 @@
       <c r="AK134" s="15"/>
       <c r="AL134" s="15"/>
     </row>
-    <row r="135" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
+    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C135" s="18">
+      <c r="C135" s="15">
         <v>3</v>
       </c>
-      <c r="D135" s="18">
-        <v>1</v>
-      </c>
-      <c r="E135" s="20" t="s">
+      <c r="D135" s="15">
+        <v>1</v>
+      </c>
+      <c r="E135" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="16" t="s">
@@ -10318,7 +10303,6 @@
       <c r="I135" s="15">
         <v>1</v>
       </c>
-      <c r="J135" s="18"/>
       <c r="K135" s="15">
         <v>1</v>
       </c>
@@ -10336,7 +10320,7 @@
       </c>
       <c r="P135" s="15"/>
       <c r="Q135" s="15"/>
-      <c r="R135" s="18"/>
+      <c r="R135" s="15"/>
       <c r="S135" s="15"/>
       <c r="T135" s="15"/>
       <c r="U135" s="15"/>
@@ -10344,7 +10328,7 @@
       <c r="W135" s="15"/>
       <c r="X135" s="15"/>
       <c r="Y135" s="15"/>
-      <c r="Z135" s="18"/>
+      <c r="Z135" s="15"/>
       <c r="AA135" s="15"/>
       <c r="AB135" s="15"/>
       <c r="AC135" s="15"/>
@@ -10352,26 +10336,26 @@
       <c r="AE135" s="15"/>
       <c r="AF135" s="15"/>
       <c r="AG135" s="15"/>
-      <c r="AH135" s="18"/>
+      <c r="AH135" s="15"/>
       <c r="AI135" s="15"/>
       <c r="AJ135" s="15"/>
       <c r="AK135" s="15"/>
       <c r="AL135" s="15"/>
     </row>
-    <row r="136" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
+    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="15">
         <v>3</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="15">
         <v>2</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F136" s="16" t="s">
@@ -10383,7 +10367,6 @@
       <c r="I136" s="15">
         <v>1</v>
       </c>
-      <c r="J136" s="18"/>
       <c r="K136" s="15">
         <v>1</v>
       </c>
@@ -10401,7 +10384,7 @@
       </c>
       <c r="P136" s="15"/>
       <c r="Q136" s="15"/>
-      <c r="R136" s="18"/>
+      <c r="R136" s="15"/>
       <c r="S136" s="15"/>
       <c r="T136" s="15"/>
       <c r="U136" s="15"/>
@@ -10409,7 +10392,7 @@
       <c r="W136" s="15"/>
       <c r="X136" s="15"/>
       <c r="Y136" s="15"/>
-      <c r="Z136" s="18"/>
+      <c r="Z136" s="15"/>
       <c r="AA136" s="15"/>
       <c r="AB136" s="15"/>
       <c r="AC136" s="15"/>
@@ -10417,26 +10400,26 @@
       <c r="AE136" s="15"/>
       <c r="AF136" s="15"/>
       <c r="AG136" s="15"/>
-      <c r="AH136" s="18"/>
+      <c r="AH136" s="15"/>
       <c r="AI136" s="15"/>
       <c r="AJ136" s="15"/>
       <c r="AK136" s="15"/>
       <c r="AL136" s="15"/>
     </row>
-    <row r="137" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
+    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C137" s="15">
         <v>3</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="15">
         <v>3</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F137" s="16" t="s">
@@ -10448,7 +10431,6 @@
       <c r="I137" s="15">
         <v>1</v>
       </c>
-      <c r="J137" s="18"/>
       <c r="K137" s="15">
         <v>1</v>
       </c>
@@ -10466,7 +10448,7 @@
       </c>
       <c r="P137" s="15"/>
       <c r="Q137" s="15"/>
-      <c r="R137" s="18"/>
+      <c r="R137" s="15"/>
       <c r="S137" s="15"/>
       <c r="T137" s="15"/>
       <c r="U137" s="15"/>
@@ -10474,7 +10456,7 @@
       <c r="W137" s="15"/>
       <c r="X137" s="15"/>
       <c r="Y137" s="15"/>
-      <c r="Z137" s="18"/>
+      <c r="Z137" s="15"/>
       <c r="AA137" s="15"/>
       <c r="AB137" s="15"/>
       <c r="AC137" s="15"/>
@@ -10482,26 +10464,26 @@
       <c r="AE137" s="15"/>
       <c r="AF137" s="15"/>
       <c r="AG137" s="15"/>
-      <c r="AH137" s="18"/>
+      <c r="AH137" s="15"/>
       <c r="AI137" s="15"/>
       <c r="AJ137" s="15"/>
       <c r="AK137" s="15"/>
       <c r="AL137" s="15"/>
     </row>
-    <row r="138" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
+    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="15">
         <v>3</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="15">
         <v>4</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F138" s="16" t="s">
@@ -10513,7 +10495,6 @@
       <c r="I138" s="15">
         <v>1</v>
       </c>
-      <c r="J138" s="18"/>
       <c r="K138" s="15">
         <v>1</v>
       </c>
@@ -10531,7 +10512,7 @@
       </c>
       <c r="P138" s="15"/>
       <c r="Q138" s="15"/>
-      <c r="R138" s="18"/>
+      <c r="R138" s="15"/>
       <c r="S138" s="15"/>
       <c r="T138" s="15"/>
       <c r="U138" s="15"/>
@@ -10539,7 +10520,7 @@
       <c r="W138" s="15"/>
       <c r="X138" s="15"/>
       <c r="Y138" s="15"/>
-      <c r="Z138" s="18"/>
+      <c r="Z138" s="15"/>
       <c r="AA138" s="15"/>
       <c r="AB138" s="15"/>
       <c r="AC138" s="15"/>
@@ -10547,26 +10528,26 @@
       <c r="AE138" s="15"/>
       <c r="AF138" s="15"/>
       <c r="AG138" s="15"/>
-      <c r="AH138" s="18"/>
+      <c r="AH138" s="15"/>
       <c r="AI138" s="15"/>
       <c r="AJ138" s="15"/>
       <c r="AK138" s="15"/>
       <c r="AL138" s="15"/>
     </row>
-    <row r="139" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="15">
         <v>2</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="15">
         <v>5</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E139" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F139" s="16" t="s">
@@ -10581,7 +10562,6 @@
       <c r="J139" s="15">
         <v>1</v>
       </c>
-      <c r="K139" s="18"/>
       <c r="L139" s="15">
         <v>1</v>
       </c>
@@ -10597,7 +10577,7 @@
       <c r="P139" s="15"/>
       <c r="Q139" s="15"/>
       <c r="R139" s="15"/>
-      <c r="S139" s="18"/>
+      <c r="S139" s="15"/>
       <c r="T139" s="15"/>
       <c r="U139" s="15"/>
       <c r="V139" s="15"/>
@@ -10605,7 +10585,7 @@
       <c r="X139" s="15"/>
       <c r="Y139" s="15"/>
       <c r="Z139" s="15"/>
-      <c r="AA139" s="18"/>
+      <c r="AA139" s="15"/>
       <c r="AB139" s="15"/>
       <c r="AC139" s="15"/>
       <c r="AD139" s="15"/>
@@ -10613,25 +10593,25 @@
       <c r="AF139" s="15"/>
       <c r="AG139" s="15"/>
       <c r="AH139" s="15"/>
-      <c r="AI139" s="18"/>
+      <c r="AI139" s="15"/>
       <c r="AJ139" s="15"/>
       <c r="AK139" s="15"/>
       <c r="AL139" s="15"/>
     </row>
-    <row r="140" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
+    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="15">
         <v>2</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="15">
         <v>6</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F140" s="16" t="s">
@@ -10646,7 +10626,6 @@
       <c r="J140" s="15">
         <v>1</v>
       </c>
-      <c r="K140" s="18"/>
       <c r="L140" s="15">
         <v>1</v>
       </c>
@@ -10662,7 +10641,7 @@
       <c r="P140" s="15"/>
       <c r="Q140" s="15"/>
       <c r="R140" s="15"/>
-      <c r="S140" s="18"/>
+      <c r="S140" s="15"/>
       <c r="T140" s="15"/>
       <c r="U140" s="15"/>
       <c r="V140" s="15"/>
@@ -10670,7 +10649,7 @@
       <c r="X140" s="15"/>
       <c r="Y140" s="15"/>
       <c r="Z140" s="15"/>
-      <c r="AA140" s="18"/>
+      <c r="AA140" s="15"/>
       <c r="AB140" s="15"/>
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
@@ -10678,25 +10657,25 @@
       <c r="AF140" s="15"/>
       <c r="AG140" s="15"/>
       <c r="AH140" s="15"/>
-      <c r="AI140" s="18"/>
+      <c r="AI140" s="15"/>
       <c r="AJ140" s="15"/>
       <c r="AK140" s="15"/>
       <c r="AL140" s="15"/>
     </row>
-    <row r="141" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
+    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C141" s="15">
         <v>2</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="15">
         <v>7</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F141" s="16" t="s">
@@ -10711,7 +10690,6 @@
       <c r="J141" s="15">
         <v>1</v>
       </c>
-      <c r="K141" s="18"/>
       <c r="L141" s="15">
         <v>1</v>
       </c>
@@ -10727,7 +10705,7 @@
       <c r="P141" s="15"/>
       <c r="Q141" s="15"/>
       <c r="R141" s="15"/>
-      <c r="S141" s="18"/>
+      <c r="S141" s="15"/>
       <c r="T141" s="15"/>
       <c r="U141" s="15"/>
       <c r="V141" s="15"/>
@@ -10735,7 +10713,7 @@
       <c r="X141" s="15"/>
       <c r="Y141" s="15"/>
       <c r="Z141" s="15"/>
-      <c r="AA141" s="18"/>
+      <c r="AA141" s="15"/>
       <c r="AB141" s="15"/>
       <c r="AC141" s="15"/>
       <c r="AD141" s="15"/>
@@ -10743,25 +10721,25 @@
       <c r="AF141" s="15"/>
       <c r="AG141" s="15"/>
       <c r="AH141" s="15"/>
-      <c r="AI141" s="18"/>
+      <c r="AI141" s="15"/>
       <c r="AJ141" s="15"/>
       <c r="AK141" s="15"/>
       <c r="AL141" s="15"/>
     </row>
-    <row r="142" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
+    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="15">
         <v>2</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="15">
         <v>8</v>
       </c>
-      <c r="E142" s="20" t="s">
+      <c r="E142" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F142" s="16" t="s">
@@ -10776,7 +10754,6 @@
       <c r="J142" s="15">
         <v>1</v>
       </c>
-      <c r="K142" s="18"/>
       <c r="L142" s="15">
         <v>1</v>
       </c>
@@ -10792,7 +10769,7 @@
       <c r="P142" s="15"/>
       <c r="Q142" s="15"/>
       <c r="R142" s="15"/>
-      <c r="S142" s="18"/>
+      <c r="S142" s="15"/>
       <c r="T142" s="15"/>
       <c r="U142" s="15"/>
       <c r="V142" s="15"/>
@@ -10800,7 +10777,7 @@
       <c r="X142" s="15"/>
       <c r="Y142" s="15"/>
       <c r="Z142" s="15"/>
-      <c r="AA142" s="18"/>
+      <c r="AA142" s="15"/>
       <c r="AB142" s="15"/>
       <c r="AC142" s="15"/>
       <c r="AD142" s="15"/>
@@ -10808,12 +10785,12 @@
       <c r="AF142" s="15"/>
       <c r="AG142" s="15"/>
       <c r="AH142" s="15"/>
-      <c r="AI142" s="18"/>
+      <c r="AI142" s="15"/>
       <c r="AJ142" s="15"/>
       <c r="AK142" s="15"/>
       <c r="AL142" s="15"/>
     </row>
-    <row r="143" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>202</v>
       </c>
@@ -10826,7 +10803,7 @@
       <c r="D143" s="15">
         <v>0</v>
       </c>
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F143" s="16" t="s">
@@ -10860,7 +10837,7 @@
       <c r="AK143" s="15"/>
       <c r="AL143" s="15"/>
     </row>
-    <row r="144" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>203</v>
       </c>
@@ -10873,7 +10850,7 @@
       <c r="D144" s="15">
         <v>0</v>
       </c>
-      <c r="E144" s="20" t="s">
+      <c r="E144" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F144" s="16" t="s">
@@ -10907,7 +10884,7 @@
       <c r="AK144" s="15"/>
       <c r="AL144" s="15"/>
     </row>
-    <row r="145" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
         <v>204</v>
       </c>
@@ -10920,17 +10897,12 @@
       <c r="D145" s="15">
         <v>0</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="G145" s="14"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
       <c r="L145" s="15"/>
       <c r="M145" s="15"/>
       <c r="N145" s="15"/>
@@ -10959,7 +10931,7 @@
       <c r="AK145" s="15"/>
       <c r="AL145" s="15"/>
     </row>
-    <row r="146" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>205</v>
       </c>
@@ -10972,17 +10944,12 @@
       <c r="D146" s="15">
         <v>0</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E146" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="G146" s="14"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
       <c r="L146" s="15"/>
       <c r="M146" s="15"/>
       <c r="N146" s="15"/>
@@ -11011,7 +10978,7 @@
       <c r="AK146" s="15"/>
       <c r="AL146" s="15"/>
     </row>
-    <row r="147" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>206</v>
       </c>
@@ -11024,21 +10991,18 @@
       <c r="D147" s="15">
         <v>0</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="G147" s="14"/>
       <c r="H147" s="15">
         <v>1</v>
       </c>
-      <c r="I147" s="15"/>
       <c r="J147" s="15">
         <v>1</v>
       </c>
-      <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="15">
         <v>1</v>
@@ -11071,7 +11035,7 @@
       <c r="AK147" s="15"/>
       <c r="AL147" s="15"/>
     </row>
-    <row r="148" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>207</v>
       </c>
@@ -11084,17 +11048,12 @@
       <c r="D148" s="15">
         <v>0</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="G148" s="14"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
       <c r="L148" s="15"/>
       <c r="M148" s="15"/>
       <c r="N148" s="15"/>
@@ -11123,7 +11082,7 @@
       <c r="AK148" s="15"/>
       <c r="AL148" s="15"/>
     </row>
-    <row r="149" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>208</v>
       </c>
@@ -11136,17 +11095,12 @@
       <c r="D149" s="15">
         <v>1</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="G149" s="14"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
       <c r="L149" s="15"/>
       <c r="M149" s="15"/>
       <c r="N149" s="15"/>
@@ -11175,7 +11129,7 @@
       <c r="AK149" s="15"/>
       <c r="AL149" s="15"/>
     </row>
-    <row r="150" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>210</v>
       </c>
@@ -11188,17 +11142,12 @@
       <c r="D150" s="15">
         <v>2</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="E150" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="G150" s="14"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
       <c r="L150" s="15"/>
       <c r="M150" s="15"/>
       <c r="N150" s="15"/>
@@ -11227,7 +11176,7 @@
       <c r="AK150" s="15"/>
       <c r="AL150" s="15"/>
     </row>
-    <row r="151" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>211</v>
       </c>
@@ -11240,17 +11189,12 @@
       <c r="D151" s="15">
         <v>3</v>
       </c>
-      <c r="E151" s="20" t="s">
+      <c r="E151" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="G151" s="14"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
       <c r="N151" s="15"/>
@@ -11279,7 +11223,7 @@
       <c r="AK151" s="15"/>
       <c r="AL151" s="15"/>
     </row>
-    <row r="152" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>212</v>
       </c>
@@ -11292,17 +11236,12 @@
       <c r="D152" s="15">
         <v>4</v>
       </c>
-      <c r="E152" s="20" t="s">
+      <c r="E152" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="G152" s="14"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
       <c r="L152" s="15"/>
       <c r="M152" s="15"/>
       <c r="N152" s="15"/>
@@ -11331,7 +11270,7 @@
       <c r="AK152" s="15"/>
       <c r="AL152" s="15"/>
     </row>
-    <row r="153" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>213</v>
       </c>
@@ -11344,17 +11283,12 @@
       <c r="D153" s="15">
         <v>5</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F153" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="G153" s="14"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
       <c r="N153" s="15"/>
@@ -11383,7 +11317,7 @@
       <c r="AK153" s="15"/>
       <c r="AL153" s="15"/>
     </row>
-    <row r="154" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>214</v>
       </c>
@@ -11396,17 +11330,12 @@
       <c r="D154" s="15">
         <v>6</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F154" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="G154" s="14"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
       <c r="L154" s="15"/>
       <c r="M154" s="15"/>
       <c r="N154" s="15"/>
@@ -11435,7 +11364,7 @@
       <c r="AK154" s="15"/>
       <c r="AL154" s="15"/>
     </row>
-    <row r="155" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>215</v>
       </c>
@@ -11448,17 +11377,12 @@
       <c r="D155" s="15">
         <v>7</v>
       </c>
-      <c r="E155" s="20" t="s">
+      <c r="E155" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F155" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="G155" s="14"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
       <c r="L155" s="15"/>
       <c r="M155" s="15"/>
       <c r="N155" s="15"/>
@@ -11487,7 +11411,7 @@
       <c r="AK155" s="15"/>
       <c r="AL155" s="15"/>
     </row>
-    <row r="156" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>216</v>
       </c>
@@ -11500,17 +11424,12 @@
       <c r="D156" s="15">
         <v>8</v>
       </c>
-      <c r="E156" s="20" t="s">
+      <c r="E156" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="G156" s="14"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
       <c r="L156" s="15"/>
       <c r="M156" s="15"/>
       <c r="N156" s="15"/>
@@ -11539,7 +11458,7 @@
       <c r="AK156" s="15"/>
       <c r="AL156" s="15"/>
     </row>
-    <row r="157" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>217</v>
       </c>
@@ -11552,17 +11471,12 @@
       <c r="D157" s="15">
         <v>9</v>
       </c>
-      <c r="E157" s="20" t="s">
+      <c r="E157" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="G157" s="14"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
       <c r="L157" s="15"/>
       <c r="M157" s="15"/>
       <c r="N157" s="15"/>
@@ -11591,7 +11505,7 @@
       <c r="AK157" s="15"/>
       <c r="AL157" s="15"/>
     </row>
-    <row r="158" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>218</v>
       </c>
@@ -11604,7 +11518,7 @@
       <c r="D158" s="15">
         <v>10</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F158" s="16" t="s">
@@ -11638,7 +11552,7 @@
       <c r="AK158" s="15"/>
       <c r="AL158" s="15"/>
     </row>
-    <row r="159" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>219</v>
       </c>
@@ -11651,7 +11565,7 @@
       <c r="D159" s="15">
         <v>1</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F159" s="16" t="s">
@@ -11685,7 +11599,7 @@
       <c r="AK159" s="15"/>
       <c r="AL159" s="15"/>
     </row>
-    <row r="160" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>221</v>
       </c>
@@ -11698,7 +11612,7 @@
       <c r="D160" s="15">
         <v>2</v>
       </c>
-      <c r="E160" s="20" t="s">
+      <c r="E160" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F160" s="16" t="s">
@@ -11732,7 +11646,7 @@
       <c r="AK160" s="15"/>
       <c r="AL160" s="15"/>
     </row>
-    <row r="161" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>222</v>
       </c>
@@ -11745,7 +11659,7 @@
       <c r="D161" s="15">
         <v>3</v>
       </c>
-      <c r="E161" s="20" t="s">
+      <c r="E161" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F161" s="16" t="s">
@@ -11779,7 +11693,7 @@
       <c r="AK161" s="15"/>
       <c r="AL161" s="15"/>
     </row>
-    <row r="162" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
         <v>223</v>
       </c>
@@ -11792,7 +11706,7 @@
       <c r="D162" s="15">
         <v>4</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E162" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F162" s="16" t="s">
@@ -11826,7 +11740,7 @@
       <c r="AK162" s="15"/>
       <c r="AL162" s="15"/>
     </row>
-    <row r="163" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>224</v>
       </c>
@@ -11839,7 +11753,7 @@
       <c r="D163" s="15">
         <v>0</v>
       </c>
-      <c r="E163" s="20" t="s">
+      <c r="E163" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F163" s="16" t="s">
@@ -11887,7 +11801,7 @@
       <c r="AK163" s="15"/>
       <c r="AL163" s="15"/>
     </row>
-    <row r="164" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>226</v>
       </c>
@@ -11900,7 +11814,7 @@
       <c r="D164" s="15">
         <v>0</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F164" s="16" t="s">
@@ -11942,7 +11856,7 @@
       <c r="AK164" s="15"/>
       <c r="AL164" s="15"/>
     </row>
-    <row r="165" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>227</v>
       </c>
@@ -11955,7 +11869,7 @@
       <c r="D165" s="15">
         <v>0</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F165" s="16" t="s">
@@ -11989,7 +11903,7 @@
       <c r="AK165" s="15"/>
       <c r="AL165" s="15"/>
     </row>
-    <row r="166" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>228</v>
       </c>
@@ -12002,7 +11916,7 @@
       <c r="D166" s="15">
         <v>0</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E166" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F166" s="16" t="s">
@@ -12036,7 +11950,7 @@
       <c r="AK166" s="15"/>
       <c r="AL166" s="15"/>
     </row>
-    <row r="167" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>229</v>
       </c>
@@ -12049,7 +11963,7 @@
       <c r="D167" s="15">
         <v>0</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E167" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F167" s="16" t="s">
@@ -12083,7 +11997,7 @@
       <c r="AK167" s="15"/>
       <c r="AL167" s="15"/>
     </row>
-    <row r="168" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>230</v>
       </c>
@@ -12096,7 +12010,7 @@
       <c r="D168" s="15">
         <v>0</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E168" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F168" s="16" t="s">
@@ -12130,7 +12044,7 @@
       <c r="AK168" s="15"/>
       <c r="AL168" s="15"/>
     </row>
-    <row r="169" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>231</v>
       </c>
@@ -12143,7 +12057,7 @@
       <c r="D169" s="15">
         <v>0</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E169" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F169" s="16" t="s">
@@ -12177,7 +12091,7 @@
       <c r="AK169" s="15"/>
       <c r="AL169" s="15"/>
     </row>
-    <row r="170" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
         <v>232</v>
       </c>
@@ -12190,7 +12104,7 @@
       <c r="D170" s="15">
         <v>1</v>
       </c>
-      <c r="E170" s="20" t="s">
+      <c r="E170" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F170" s="16" t="s">
@@ -12238,7 +12152,7 @@
       <c r="AK170" s="15"/>
       <c r="AL170" s="15"/>
     </row>
-    <row r="171" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
         <v>234</v>
       </c>
@@ -12251,7 +12165,7 @@
       <c r="D171" s="15">
         <v>2</v>
       </c>
-      <c r="E171" s="20" t="s">
+      <c r="E171" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F171" s="16" t="s">
@@ -12299,7 +12213,7 @@
       <c r="AK171" s="15"/>
       <c r="AL171" s="15"/>
     </row>
-    <row r="172" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
         <v>235</v>
       </c>
@@ -12312,7 +12226,7 @@
       <c r="D172" s="15">
         <v>3</v>
       </c>
-      <c r="E172" s="20" t="s">
+      <c r="E172" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F172" s="16" t="s">
@@ -12360,7 +12274,7 @@
       <c r="AK172" s="15"/>
       <c r="AL172" s="15"/>
     </row>
-    <row r="173" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
         <v>236</v>
       </c>
@@ -12373,7 +12287,7 @@
       <c r="D173" s="15">
         <v>4</v>
       </c>
-      <c r="E173" s="20" t="s">
+      <c r="E173" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F173" s="16" t="s">
@@ -12419,7 +12333,7 @@
       <c r="AK173" s="15"/>
       <c r="AL173" s="15"/>
     </row>
-    <row r="174" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
         <v>237</v>
       </c>
@@ -12432,7 +12346,7 @@
       <c r="D174" s="15">
         <v>5</v>
       </c>
-      <c r="E174" s="20" t="s">
+      <c r="E174" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F174" s="16" t="s">
@@ -12480,7 +12394,7 @@
       <c r="AK174" s="15"/>
       <c r="AL174" s="15"/>
     </row>
-    <row r="175" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
         <v>238</v>
       </c>
@@ -12493,7 +12407,7 @@
       <c r="D175" s="15">
         <v>1</v>
       </c>
-      <c r="E175" s="20" t="s">
+      <c r="E175" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F175" s="16" t="s">
@@ -12527,7 +12441,7 @@
       <c r="AK175" s="15"/>
       <c r="AL175" s="15"/>
     </row>
-    <row r="176" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
         <v>240</v>
       </c>
@@ -12540,7 +12454,7 @@
       <c r="D176" s="15">
         <v>2</v>
       </c>
-      <c r="E176" s="20" t="s">
+      <c r="E176" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F176" s="16" t="s">
@@ -12574,7 +12488,7 @@
       <c r="AK176" s="15"/>
       <c r="AL176" s="15"/>
     </row>
-    <row r="177" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>241</v>
       </c>
@@ -12587,7 +12501,7 @@
       <c r="D177" s="15">
         <v>3</v>
       </c>
-      <c r="E177" s="20" t="s">
+      <c r="E177" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F177" s="16" t="s">
@@ -12621,7 +12535,7 @@
       <c r="AK177" s="15"/>
       <c r="AL177" s="15"/>
     </row>
-    <row r="178" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
         <v>242</v>
       </c>
@@ -12634,7 +12548,7 @@
       <c r="D178" s="15">
         <v>4</v>
       </c>
-      <c r="E178" s="20" t="s">
+      <c r="E178" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F178" s="16" t="s">
@@ -12668,7 +12582,7 @@
       <c r="AK178" s="15"/>
       <c r="AL178" s="15"/>
     </row>
-    <row r="179" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
         <v>243</v>
       </c>
@@ -12681,7 +12595,7 @@
       <c r="D179" s="15">
         <v>0</v>
       </c>
-      <c r="E179" s="20" t="s">
+      <c r="E179" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F179" s="16" t="s">
@@ -12732,7 +12646,7 @@
       <c r="AK179" s="15"/>
       <c r="AL179" s="15"/>
     </row>
-    <row r="180" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
         <v>245</v>
       </c>
@@ -12745,7 +12659,7 @@
       <c r="D180" s="15">
         <v>1</v>
       </c>
-      <c r="E180" s="20" t="s">
+      <c r="E180" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F180" s="16" t="s">
@@ -12796,7 +12710,7 @@
       <c r="AK180" s="15"/>
       <c r="AL180" s="15"/>
     </row>
-    <row r="181" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
         <v>247</v>
       </c>
@@ -12809,7 +12723,7 @@
       <c r="D181" s="15">
         <v>2</v>
       </c>
-      <c r="E181" s="20" t="s">
+      <c r="E181" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F181" s="16" t="s">
@@ -12861,7 +12775,7 @@
       <c r="AK181" s="15"/>
       <c r="AL181" s="15"/>
     </row>
-    <row r="182" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>248</v>
       </c>
@@ -12874,7 +12788,7 @@
       <c r="D182" s="15">
         <v>3</v>
       </c>
-      <c r="E182" s="20" t="s">
+      <c r="E182" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F182" s="16" t="s">
@@ -12926,7 +12840,7 @@
       <c r="AK182" s="15"/>
       <c r="AL182" s="15"/>
     </row>
-    <row r="183" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>249</v>
       </c>
@@ -12939,7 +12853,7 @@
       <c r="D183" s="15">
         <v>4</v>
       </c>
-      <c r="E183" s="20" t="s">
+      <c r="E183" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F183" s="16" t="s">
@@ -12991,7 +12905,7 @@
       <c r="AK183" s="15"/>
       <c r="AL183" s="15"/>
     </row>
-    <row r="184" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>250</v>
       </c>
@@ -13004,7 +12918,7 @@
       <c r="D184" s="15">
         <v>5</v>
       </c>
-      <c r="E184" s="20" t="s">
+      <c r="E184" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F184" s="16" t="s">
@@ -13056,7 +12970,7 @@
       <c r="AK184" s="15"/>
       <c r="AL184" s="15"/>
     </row>
-    <row r="185" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>251</v>
       </c>
@@ -13069,7 +12983,7 @@
       <c r="D185" s="15">
         <v>6</v>
       </c>
-      <c r="E185" s="20" t="s">
+      <c r="E185" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F185" s="16" t="s">
@@ -13121,7 +13035,7 @@
       <c r="AK185" s="15"/>
       <c r="AL185" s="15"/>
     </row>
-    <row r="186" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
         <v>252</v>
       </c>
@@ -13134,7 +13048,7 @@
       <c r="D186" s="15">
         <v>0</v>
       </c>
-      <c r="E186" s="20" t="s">
+      <c r="E186" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F186" s="16" t="s">
@@ -13182,7 +13096,7 @@
       <c r="AK186" s="15"/>
       <c r="AL186" s="15"/>
     </row>
-    <row r="187" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
         <v>254</v>
       </c>
@@ -13195,7 +13109,7 @@
       <c r="D187" s="15">
         <v>0</v>
       </c>
-      <c r="E187" s="20" t="s">
+      <c r="E187" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F187" s="16" t="s">
@@ -13247,7 +13161,7 @@
       <c r="AK187" s="15"/>
       <c r="AL187" s="15"/>
     </row>
-    <row r="188" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
         <v>256</v>
       </c>
@@ -13260,7 +13174,7 @@
       <c r="D188" s="15">
         <v>0</v>
       </c>
-      <c r="E188" s="20" t="s">
+      <c r="E188" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F188" s="16" t="s">
@@ -13294,7 +13208,7 @@
       <c r="AK188" s="15"/>
       <c r="AL188" s="15"/>
     </row>
-    <row r="189" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>258</v>
       </c>
@@ -13307,7 +13221,7 @@
       <c r="D189" s="15">
         <v>0</v>
       </c>
-      <c r="E189" s="20" t="s">
+      <c r="E189" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F189" s="16" t="s">
@@ -13341,7 +13255,7 @@
       <c r="AK189" s="15"/>
       <c r="AL189" s="15"/>
     </row>
-    <row r="190" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
         <v>259</v>
       </c>
@@ -13354,7 +13268,7 @@
       <c r="D190" s="15">
         <v>0</v>
       </c>
-      <c r="E190" s="20" t="s">
+      <c r="E190" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F190" s="16" t="s">
@@ -13394,7 +13308,7 @@
       <c r="AK190" s="15"/>
       <c r="AL190" s="15"/>
     </row>
-    <row r="191" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
         <v>260</v>
       </c>
@@ -13407,7 +13321,7 @@
       <c r="D191" s="15">
         <v>0</v>
       </c>
-      <c r="E191" s="20" t="s">
+      <c r="E191" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F191" s="16" t="s">
@@ -13441,7 +13355,7 @@
       <c r="AK191" s="15"/>
       <c r="AL191" s="15"/>
     </row>
-    <row r="192" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
         <v>261</v>
       </c>
@@ -13454,7 +13368,7 @@
       <c r="D192" s="15">
         <v>0</v>
       </c>
-      <c r="E192" s="20" t="s">
+      <c r="E192" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F192" s="16" t="s">
@@ -13488,7 +13402,7 @@
       <c r="AK192" s="15"/>
       <c r="AL192" s="15"/>
     </row>
-    <row r="193" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
         <v>262</v>
       </c>
@@ -13501,7 +13415,7 @@
       <c r="D193" s="15">
         <v>0</v>
       </c>
-      <c r="E193" s="20" t="s">
+      <c r="E193" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F193" s="16" t="s">
@@ -13535,7 +13449,7 @@
       <c r="AK193" s="15"/>
       <c r="AL193" s="15"/>
     </row>
-    <row r="194" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
         <v>263</v>
       </c>
@@ -13548,7 +13462,7 @@
       <c r="D194" s="15">
         <v>0</v>
       </c>
-      <c r="E194" s="20" t="s">
+      <c r="E194" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F194" s="16" t="s">
@@ -13582,7 +13496,7 @@
       <c r="AK194" s="15"/>
       <c r="AL194" s="15"/>
     </row>
-    <row r="195" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>264</v>
       </c>
@@ -13595,7 +13509,7 @@
       <c r="D195" s="15">
         <v>0</v>
       </c>
-      <c r="E195" s="20" t="s">
+      <c r="E195" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F195" s="16" t="s">
@@ -13635,7 +13549,7 @@
       <c r="AK195" s="15"/>
       <c r="AL195" s="15"/>
     </row>
-    <row r="196" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
         <v>266</v>
       </c>
@@ -13648,7 +13562,7 @@
       <c r="D196" s="15">
         <v>0</v>
       </c>
-      <c r="E196" s="20" t="s">
+      <c r="E196" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F196" s="16" t="s">
@@ -13696,7 +13610,7 @@
       <c r="AK196" s="15"/>
       <c r="AL196" s="15"/>
     </row>
-    <row r="197" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
         <v>267</v>
       </c>
@@ -13709,7 +13623,7 @@
       <c r="D197" s="15">
         <v>0</v>
       </c>
-      <c r="E197" s="20" t="s">
+      <c r="E197" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F197" s="16" t="s">
@@ -13743,7 +13657,7 @@
       <c r="AK197" s="15"/>
       <c r="AL197" s="15"/>
     </row>
-    <row r="198" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
         <v>268</v>
       </c>
@@ -13756,7 +13670,7 @@
       <c r="D198" s="15">
         <v>0</v>
       </c>
-      <c r="E198" s="20" t="s">
+      <c r="E198" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F198" s="16" t="s">
@@ -13790,7 +13704,7 @@
       <c r="AK198" s="15"/>
       <c r="AL198" s="15"/>
     </row>
-    <row r="199" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>270</v>
       </c>
@@ -13803,7 +13717,7 @@
       <c r="D199" s="15">
         <v>0</v>
       </c>
-      <c r="E199" s="20" t="s">
+      <c r="E199" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F199" s="16" t="s">
@@ -13837,7 +13751,7 @@
       <c r="AK199" s="15"/>
       <c r="AL199" s="15"/>
     </row>
-    <row r="200" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>271</v>
       </c>
@@ -13850,7 +13764,7 @@
       <c r="D200" s="15">
         <v>0</v>
       </c>
-      <c r="E200" s="20" t="s">
+      <c r="E200" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F200" s="16" t="s">
@@ -13884,7 +13798,7 @@
       <c r="AK200" s="15"/>
       <c r="AL200" s="15"/>
     </row>
-    <row r="201" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>273</v>
       </c>
@@ -13897,7 +13811,7 @@
       <c r="D201" s="15">
         <v>0</v>
       </c>
-      <c r="E201" s="20" t="s">
+      <c r="E201" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F201" s="16" t="s">
@@ -13931,7 +13845,7 @@
       <c r="AK201" s="15"/>
       <c r="AL201" s="15"/>
     </row>
-    <row r="202" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
         <v>274</v>
       </c>
@@ -13944,7 +13858,7 @@
       <c r="D202" s="15">
         <v>1</v>
       </c>
-      <c r="E202" s="20" t="s">
+      <c r="E202" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F202" s="16" t="s">
@@ -13992,7 +13906,7 @@
       <c r="AK202" s="15"/>
       <c r="AL202" s="15"/>
     </row>
-    <row r="203" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
         <v>276</v>
       </c>
@@ -14005,7 +13919,7 @@
       <c r="D203" s="15">
         <v>2</v>
       </c>
-      <c r="E203" s="20" t="s">
+      <c r="E203" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F203" s="16" t="s">
@@ -14039,7 +13953,7 @@
       <c r="AK203" s="15"/>
       <c r="AL203" s="15"/>
     </row>
-    <row r="204" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>277</v>
       </c>
@@ -14052,7 +13966,7 @@
       <c r="D204" s="15">
         <v>3</v>
       </c>
-      <c r="E204" s="20" t="s">
+      <c r="E204" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F204" s="16" t="s">
@@ -14086,7 +14000,7 @@
       <c r="AK204" s="15"/>
       <c r="AL204" s="15"/>
     </row>
-    <row r="205" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
         <v>278</v>
       </c>
@@ -14099,7 +14013,7 @@
       <c r="D205" s="15">
         <v>4</v>
       </c>
-      <c r="E205" s="20" t="s">
+      <c r="E205" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F205" s="16" t="s">
@@ -14141,7 +14055,7 @@
       <c r="AK205" s="15"/>
       <c r="AL205" s="15"/>
     </row>
-    <row r="206" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
         <v>279</v>
       </c>
@@ -14154,7 +14068,7 @@
       <c r="D206" s="15">
         <v>5</v>
       </c>
-      <c r="E206" s="20" t="s">
+      <c r="E206" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F206" s="16" t="s">
@@ -14196,7 +14110,7 @@
       <c r="AK206" s="15"/>
       <c r="AL206" s="15"/>
     </row>
-    <row r="207" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>280</v>
       </c>
@@ -14209,7 +14123,7 @@
       <c r="D207" s="15">
         <v>6</v>
       </c>
-      <c r="E207" s="20" t="s">
+      <c r="E207" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F207" s="16" t="s">
@@ -14243,7 +14157,7 @@
       <c r="AK207" s="15"/>
       <c r="AL207" s="15"/>
     </row>
-    <row r="208" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>281</v>
       </c>
@@ -14256,7 +14170,7 @@
       <c r="D208" s="15">
         <v>7</v>
       </c>
-      <c r="E208" s="20" t="s">
+      <c r="E208" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F208" s="16" t="s">
@@ -14290,7 +14204,7 @@
       <c r="AK208" s="15"/>
       <c r="AL208" s="15"/>
     </row>
-    <row r="209" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>282</v>
       </c>
@@ -14303,7 +14217,7 @@
       <c r="D209" s="15">
         <v>8</v>
       </c>
-      <c r="E209" s="20" t="s">
+      <c r="E209" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F209" s="16" t="s">
@@ -14337,7 +14251,7 @@
       <c r="AK209" s="15"/>
       <c r="AL209" s="15"/>
     </row>
-    <row r="210" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
         <v>283</v>
       </c>
@@ -14350,7 +14264,7 @@
       <c r="D210" s="15">
         <v>0</v>
       </c>
-      <c r="E210" s="20" t="s">
+      <c r="E210" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F210" s="16" t="s">
@@ -14384,7 +14298,7 @@
       <c r="AK210" s="15"/>
       <c r="AL210" s="15"/>
     </row>
-    <row r="211" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
         <v>285</v>
       </c>
@@ -14397,7 +14311,7 @@
       <c r="D211" s="15">
         <v>0</v>
       </c>
-      <c r="E211" s="20" t="s">
+      <c r="E211" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F211" s="16" t="s">
@@ -14431,7 +14345,7 @@
       <c r="AK211" s="15"/>
       <c r="AL211" s="15"/>
     </row>
-    <row r="212" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
         <v>286</v>
       </c>
@@ -14444,7 +14358,7 @@
       <c r="D212" s="15">
         <v>0</v>
       </c>
-      <c r="E212" s="20" t="s">
+      <c r="E212" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F212" s="16" t="s">
@@ -14478,7 +14392,7 @@
       <c r="AK212" s="15"/>
       <c r="AL212" s="15"/>
     </row>
-    <row r="213" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
         <v>287</v>
       </c>
@@ -14491,7 +14405,7 @@
       <c r="D213" s="15">
         <v>0</v>
       </c>
-      <c r="E213" s="20" t="s">
+      <c r="E213" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F213" s="16" t="s">
@@ -14525,7 +14439,7 @@
       <c r="AK213" s="15"/>
       <c r="AL213" s="15"/>
     </row>
-    <row r="214" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
         <v>288</v>
       </c>
@@ -14538,7 +14452,7 @@
       <c r="D214" s="15">
         <v>0</v>
       </c>
-      <c r="E214" s="20" t="s">
+      <c r="E214" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F214" s="16" t="s">
@@ -14572,7 +14486,7 @@
       <c r="AK214" s="15"/>
       <c r="AL214" s="15"/>
     </row>
-    <row r="215" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
         <v>289</v>
       </c>
@@ -14585,7 +14499,7 @@
       <c r="D215" s="15">
         <v>0</v>
       </c>
-      <c r="E215" s="20" t="s">
+      <c r="E215" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F215" s="16" t="s">
@@ -14619,7 +14533,7 @@
       <c r="AK215" s="15"/>
       <c r="AL215" s="15"/>
     </row>
-    <row r="216" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
         <v>290</v>
       </c>
@@ -14632,7 +14546,7 @@
       <c r="D216" s="15">
         <v>0</v>
       </c>
-      <c r="E216" s="20" t="s">
+      <c r="E216" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F216" s="16" t="s">
@@ -14666,7 +14580,7 @@
       <c r="AK216" s="15"/>
       <c r="AL216" s="15"/>
     </row>
-    <row r="217" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
         <v>291</v>
       </c>
@@ -14679,7 +14593,7 @@
       <c r="D217" s="15">
         <v>0</v>
       </c>
-      <c r="E217" s="20" t="s">
+      <c r="E217" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F217" s="16" t="s">
@@ -14713,7 +14627,7 @@
       <c r="AK217" s="15"/>
       <c r="AL217" s="15"/>
     </row>
-    <row r="218" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
         <v>292</v>
       </c>
@@ -14726,7 +14640,7 @@
       <c r="D218" s="15">
         <v>0</v>
       </c>
-      <c r="E218" s="20" t="s">
+      <c r="E218" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F218" s="16" t="s">
@@ -14760,7 +14674,7 @@
       <c r="AK218" s="15"/>
       <c r="AL218" s="15"/>
     </row>
-    <row r="219" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
         <v>293</v>
       </c>
@@ -14773,7 +14687,7 @@
       <c r="D219" s="15">
         <v>0</v>
       </c>
-      <c r="E219" s="20" t="s">
+      <c r="E219" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F219" s="16" t="s">
@@ -14807,7 +14721,7 @@
       <c r="AK219" s="15"/>
       <c r="AL219" s="15"/>
     </row>
-    <row r="220" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
         <v>294</v>
       </c>
@@ -14820,7 +14734,7 @@
       <c r="D220" s="15">
         <v>0</v>
       </c>
-      <c r="E220" s="20" t="s">
+      <c r="E220" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F220" s="16" t="s">
@@ -14860,7 +14774,7 @@
       <c r="AK220" s="15"/>
       <c r="AL220" s="15"/>
     </row>
-    <row r="221" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
         <v>295</v>
       </c>
@@ -14873,7 +14787,7 @@
       <c r="D221" s="15">
         <v>0</v>
       </c>
-      <c r="E221" s="20" t="s">
+      <c r="E221" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F221" s="16" t="s">
@@ -14907,7 +14821,7 @@
       <c r="AK221" s="15"/>
       <c r="AL221" s="15"/>
     </row>
-    <row r="222" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
         <v>297</v>
       </c>
@@ -14920,7 +14834,7 @@
       <c r="D222" s="15">
         <v>0</v>
       </c>
-      <c r="E222" s="20" t="s">
+      <c r="E222" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F222" s="16" t="s">
@@ -14954,7 +14868,7 @@
       <c r="AK222" s="15"/>
       <c r="AL222" s="15"/>
     </row>
-    <row r="223" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
         <v>298</v>
       </c>
@@ -14967,7 +14881,7 @@
       <c r="D223" s="15">
         <v>0</v>
       </c>
-      <c r="E223" s="20" t="s">
+      <c r="E223" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F223" s="16" t="s">
@@ -15001,7 +14915,7 @@
       <c r="AK223" s="15"/>
       <c r="AL223" s="15"/>
     </row>
-    <row r="224" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
         <v>300</v>
       </c>
@@ -15014,7 +14928,7 @@
       <c r="D224" s="15">
         <v>0</v>
       </c>
-      <c r="E224" s="20" t="s">
+      <c r="E224" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F224" s="16" t="s">
@@ -15048,7 +14962,7 @@
       <c r="AK224" s="15"/>
       <c r="AL224" s="15"/>
     </row>
-    <row r="225" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
         <v>301</v>
       </c>
@@ -15061,7 +14975,7 @@
       <c r="D225" s="15">
         <v>0</v>
       </c>
-      <c r="E225" s="20" t="s">
+      <c r="E225" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F225" s="16" t="s">
@@ -15107,7 +15021,7 @@
       <c r="AK225" s="15"/>
       <c r="AL225" s="15"/>
     </row>
-    <row r="226" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
         <v>302</v>
       </c>
@@ -15120,7 +15034,7 @@
       <c r="D226" s="15">
         <v>1</v>
       </c>
-      <c r="E226" s="20" t="s">
+      <c r="E226" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F226" s="16" t="s">
@@ -15154,7 +15068,7 @@
       <c r="AK226" s="15"/>
       <c r="AL226" s="15"/>
     </row>
-    <row r="227" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
         <v>304</v>
       </c>
@@ -15167,7 +15081,7 @@
       <c r="D227" s="15">
         <v>2</v>
       </c>
-      <c r="E227" s="20" t="s">
+      <c r="E227" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F227" s="16" t="s">
@@ -15201,7 +15115,7 @@
       <c r="AK227" s="15"/>
       <c r="AL227" s="15"/>
     </row>
-    <row r="228" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
         <v>305</v>
       </c>
@@ -15214,7 +15128,7 @@
       <c r="D228" s="15">
         <v>3</v>
       </c>
-      <c r="E228" s="20" t="s">
+      <c r="E228" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F228" s="16" t="s">
@@ -15262,7 +15176,7 @@
       <c r="AK228" s="15"/>
       <c r="AL228" s="15"/>
     </row>
-    <row r="229" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
         <v>306</v>
       </c>
@@ -15275,7 +15189,7 @@
       <c r="D229" s="15">
         <v>4</v>
       </c>
-      <c r="E229" s="20" t="s">
+      <c r="E229" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F229" s="16" t="s">
@@ -15309,7 +15223,7 @@
       <c r="AK229" s="15"/>
       <c r="AL229" s="15"/>
     </row>
-    <row r="230" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
         <v>307</v>
       </c>
@@ -15322,7 +15236,7 @@
       <c r="D230" s="15">
         <v>5</v>
       </c>
-      <c r="E230" s="20" t="s">
+      <c r="E230" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F230" s="16" t="s">
@@ -15362,7 +15276,7 @@
       <c r="AK230" s="15"/>
       <c r="AL230" s="15"/>
     </row>
-    <row r="231" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
         <v>308</v>
       </c>
@@ -15375,7 +15289,7 @@
       <c r="D231" s="15">
         <v>6</v>
       </c>
-      <c r="E231" s="20" t="s">
+      <c r="E231" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F231" s="16" t="s">
@@ -15415,7 +15329,7 @@
       <c r="AK231" s="15"/>
       <c r="AL231" s="15"/>
     </row>
-    <row r="232" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
         <v>309</v>
       </c>
@@ -15428,7 +15342,7 @@
       <c r="D232" s="15">
         <v>7</v>
       </c>
-      <c r="E232" s="20" t="s">
+      <c r="E232" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F232" s="16" t="s">
@@ -15473,7 +15387,7 @@
       <c r="AK232" s="15"/>
       <c r="AL232" s="15"/>
     </row>
-    <row r="233" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
         <v>310</v>
       </c>
@@ -15486,7 +15400,7 @@
       <c r="D233" s="15">
         <v>8</v>
       </c>
-      <c r="E233" s="20" t="s">
+      <c r="E233" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F233" s="16" t="s">
@@ -15520,7 +15434,7 @@
       <c r="AK233" s="15"/>
       <c r="AL233" s="15"/>
     </row>
-    <row r="234" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
         <v>311</v>
       </c>
@@ -15533,7 +15447,7 @@
       <c r="D234" s="15">
         <v>9</v>
       </c>
-      <c r="E234" s="20" t="s">
+      <c r="E234" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F234" s="16" t="s">
@@ -15567,7 +15481,7 @@
       <c r="AK234" s="15"/>
       <c r="AL234" s="15"/>
     </row>
-    <row r="235" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
         <v>312</v>
       </c>
@@ -15580,7 +15494,7 @@
       <c r="D235" s="15">
         <v>10</v>
       </c>
-      <c r="E235" s="20" t="s">
+      <c r="E235" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F235" s="16" t="s">
@@ -15614,7 +15528,7 @@
       <c r="AK235" s="15"/>
       <c r="AL235" s="15"/>
     </row>
-    <row r="236" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
         <v>313</v>
       </c>
@@ -15627,7 +15541,7 @@
       <c r="D236" s="15">
         <v>11</v>
       </c>
-      <c r="E236" s="20" t="s">
+      <c r="E236" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F236" s="16" t="s">
@@ -15661,7 +15575,7 @@
       <c r="AK236" s="15"/>
       <c r="AL236" s="15"/>
     </row>
-    <row r="237" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
         <v>314</v>
       </c>
@@ -15674,7 +15588,7 @@
       <c r="D237" s="15">
         <v>12</v>
       </c>
-      <c r="E237" s="20" t="s">
+      <c r="E237" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F237" s="16" t="s">
@@ -15708,7 +15622,7 @@
       <c r="AK237" s="15"/>
       <c r="AL237" s="15"/>
     </row>
-    <row r="238" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
         <v>315</v>
       </c>
@@ -15721,7 +15635,7 @@
       <c r="D238" s="15">
         <v>13</v>
       </c>
-      <c r="E238" s="20" t="s">
+      <c r="E238" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F238" s="16" t="s">
@@ -15755,7 +15669,7 @@
       <c r="AK238" s="15"/>
       <c r="AL238" s="15"/>
     </row>
-    <row r="239" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
         <v>316</v>
       </c>
@@ -15768,7 +15682,7 @@
       <c r="D239" s="15">
         <v>14</v>
       </c>
-      <c r="E239" s="20" t="s">
+      <c r="E239" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F239" s="16" t="s">
@@ -15802,7 +15716,7 @@
       <c r="AK239" s="15"/>
       <c r="AL239" s="15"/>
     </row>
-    <row r="240" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
         <v>317</v>
       </c>
@@ -15815,7 +15729,7 @@
       <c r="D240" s="15">
         <v>15</v>
       </c>
-      <c r="E240" s="20" t="s">
+      <c r="E240" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F240" s="16" t="s">
@@ -15849,7 +15763,7 @@
       <c r="AK240" s="15"/>
       <c r="AL240" s="15"/>
     </row>
-    <row r="241" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
         <v>318</v>
       </c>
@@ -15862,7 +15776,7 @@
       <c r="D241" s="15">
         <v>16</v>
       </c>
-      <c r="E241" s="20" t="s">
+      <c r="E241" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F241" s="16" t="s">
@@ -15896,7 +15810,7 @@
       <c r="AK241" s="15"/>
       <c r="AL241" s="15"/>
     </row>
-    <row r="242" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>319</v>
       </c>
@@ -15909,7 +15823,7 @@
       <c r="D242" s="15">
         <v>17</v>
       </c>
-      <c r="E242" s="20" t="s">
+      <c r="E242" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F242" s="16" t="s">
@@ -15943,7 +15857,7 @@
       <c r="AK242" s="15"/>
       <c r="AL242" s="15"/>
     </row>
-    <row r="243" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
         <v>320</v>
       </c>
@@ -15956,7 +15870,7 @@
       <c r="D243" s="15">
         <v>18</v>
       </c>
-      <c r="E243" s="20" t="s">
+      <c r="E243" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F243" s="16" t="s">
@@ -15990,7 +15904,7 @@
       <c r="AK243" s="15"/>
       <c r="AL243" s="15"/>
     </row>
-    <row r="244" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
         <v>321</v>
       </c>
@@ -16003,7 +15917,7 @@
       <c r="D244" s="15">
         <v>19</v>
       </c>
-      <c r="E244" s="20" t="s">
+      <c r="E244" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F244" s="16" t="s">
@@ -16037,7 +15951,7 @@
       <c r="AK244" s="15"/>
       <c r="AL244" s="15"/>
     </row>
-    <row r="245" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
         <v>322</v>
       </c>
@@ -16050,7 +15964,7 @@
       <c r="D245" s="15">
         <v>20</v>
       </c>
-      <c r="E245" s="20" t="s">
+      <c r="E245" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F245" s="16" t="s">
@@ -16084,7 +15998,7 @@
       <c r="AK245" s="15"/>
       <c r="AL245" s="15"/>
     </row>
-    <row r="246" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>323</v>
       </c>
@@ -16097,7 +16011,7 @@
       <c r="D246" s="15">
         <v>21</v>
       </c>
-      <c r="E246" s="20" t="s">
+      <c r="E246" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F246" s="16" t="s">
@@ -16131,7 +16045,7 @@
       <c r="AK246" s="15"/>
       <c r="AL246" s="15"/>
     </row>
-    <row r="247" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>324</v>
       </c>
@@ -16144,7 +16058,7 @@
       <c r="D247" s="15">
         <v>22</v>
       </c>
-      <c r="E247" s="20" t="s">
+      <c r="E247" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F247" s="16" t="s">
@@ -16178,7 +16092,7 @@
       <c r="AK247" s="15"/>
       <c r="AL247" s="15"/>
     </row>
-    <row r="248" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
         <v>325</v>
       </c>
@@ -16191,7 +16105,7 @@
       <c r="D248" s="15">
         <v>1</v>
       </c>
-      <c r="E248" s="20" t="s">
+      <c r="E248" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F248" s="16" t="s">
@@ -16225,7 +16139,7 @@
       <c r="AK248" s="15"/>
       <c r="AL248" s="15"/>
     </row>
-    <row r="249" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
         <v>327</v>
       </c>
@@ -16238,7 +16152,7 @@
       <c r="D249" s="15">
         <v>2</v>
       </c>
-      <c r="E249" s="20" t="s">
+      <c r="E249" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F249" s="16" t="s">
@@ -16272,7 +16186,7 @@
       <c r="AK249" s="15"/>
       <c r="AL249" s="15"/>
     </row>
-    <row r="250" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>328</v>
       </c>
@@ -16285,7 +16199,7 @@
       <c r="D250" s="15">
         <v>3</v>
       </c>
-      <c r="E250" s="20" t="s">
+      <c r="E250" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F250" s="16" t="s">
@@ -16319,7 +16233,7 @@
       <c r="AK250" s="15"/>
       <c r="AL250" s="15"/>
     </row>
-    <row r="251" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>329</v>
       </c>
@@ -16332,7 +16246,7 @@
       <c r="D251" s="15">
         <v>4</v>
       </c>
-      <c r="E251" s="20" t="s">
+      <c r="E251" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F251" s="16" t="s">
@@ -16366,7 +16280,7 @@
       <c r="AK251" s="15"/>
       <c r="AL251" s="15"/>
     </row>
-    <row r="252" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
         <v>330</v>
       </c>
@@ -16379,7 +16293,7 @@
       <c r="D252" s="15">
         <v>1</v>
       </c>
-      <c r="E252" s="20" t="s">
+      <c r="E252" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F252" s="16" t="s">
@@ -16413,7 +16327,7 @@
       <c r="AK252" s="15"/>
       <c r="AL252" s="15"/>
     </row>
-    <row r="253" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
         <v>332</v>
       </c>
@@ -16426,7 +16340,7 @@
       <c r="D253" s="15">
         <v>2</v>
       </c>
-      <c r="E253" s="20" t="s">
+      <c r="E253" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F253" s="16" t="s">
@@ -16460,7 +16374,7 @@
       <c r="AK253" s="15"/>
       <c r="AL253" s="15"/>
     </row>
-    <row r="254" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
         <v>333</v>
       </c>
@@ -16473,7 +16387,7 @@
       <c r="D254" s="15">
         <v>3</v>
       </c>
-      <c r="E254" s="20" t="s">
+      <c r="E254" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F254" s="16" t="s">
@@ -16507,7 +16421,7 @@
       <c r="AK254" s="15"/>
       <c r="AL254" s="15"/>
     </row>
-    <row r="255" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
         <v>334</v>
       </c>
@@ -16520,7 +16434,7 @@
       <c r="D255" s="15">
         <v>4</v>
       </c>
-      <c r="E255" s="20" t="s">
+      <c r="E255" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F255" s="16" t="s">
@@ -16554,7 +16468,7 @@
       <c r="AK255" s="15"/>
       <c r="AL255" s="15"/>
     </row>
-    <row r="256" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>335</v>
       </c>
@@ -16567,7 +16481,7 @@
       <c r="D256" s="15">
         <v>5</v>
       </c>
-      <c r="E256" s="20" t="s">
+      <c r="E256" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F256" s="16" t="s">
@@ -16601,7 +16515,7 @@
       <c r="AK256" s="15"/>
       <c r="AL256" s="15"/>
     </row>
-    <row r="257" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>336</v>
       </c>
@@ -16614,7 +16528,7 @@
       <c r="D257" s="15">
         <v>0</v>
       </c>
-      <c r="E257" s="20" t="s">
+      <c r="E257" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F257" s="16" t="s">
@@ -16648,7 +16562,7 @@
       <c r="AK257" s="15"/>
       <c r="AL257" s="15"/>
     </row>
-    <row r="258" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
         <v>338</v>
       </c>
@@ -16661,7 +16575,7 @@
       <c r="D258" s="15">
         <v>0</v>
       </c>
-      <c r="E258" s="20" t="s">
+      <c r="E258" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F258" s="16" t="s">
@@ -16695,7 +16609,7 @@
       <c r="AK258" s="15"/>
       <c r="AL258" s="15"/>
     </row>
-    <row r="259" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
         <v>339</v>
       </c>
@@ -16708,7 +16622,7 @@
       <c r="D259" s="15">
         <v>0</v>
       </c>
-      <c r="E259" s="20" t="s">
+      <c r="E259" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F259" s="16" t="s">
@@ -16742,7 +16656,7 @@
       <c r="AK259" s="15"/>
       <c r="AL259" s="15"/>
     </row>
-    <row r="260" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
         <v>340</v>
       </c>
@@ -16755,7 +16669,7 @@
       <c r="D260" s="15">
         <v>0</v>
       </c>
-      <c r="E260" s="20" t="s">
+      <c r="E260" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F260" s="16" t="s">
@@ -16789,7 +16703,7 @@
       <c r="AK260" s="15"/>
       <c r="AL260" s="15"/>
     </row>
-    <row r="261" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
         <v>341</v>
       </c>
@@ -16802,7 +16716,7 @@
       <c r="D261" s="15">
         <v>0</v>
       </c>
-      <c r="E261" s="20" t="s">
+      <c r="E261" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F261" s="16" t="s">
@@ -16836,7 +16750,7 @@
       <c r="AK261" s="15"/>
       <c r="AL261" s="15"/>
     </row>
-    <row r="262" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
         <v>342</v>
       </c>
@@ -16849,7 +16763,7 @@
       <c r="D262" s="15">
         <v>0</v>
       </c>
-      <c r="E262" s="20" t="s">
+      <c r="E262" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F262" s="16" t="s">
@@ -16889,7 +16803,7 @@
       <c r="AK262" s="15"/>
       <c r="AL262" s="15"/>
     </row>
-    <row r="263" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
         <v>343</v>
       </c>
@@ -16902,7 +16816,7 @@
       <c r="D263" s="15">
         <v>0</v>
       </c>
-      <c r="E263" s="20" t="s">
+      <c r="E263" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F263" s="16" t="s">
@@ -16936,7 +16850,7 @@
       <c r="AK263" s="15"/>
       <c r="AL263" s="15"/>
     </row>
-    <row r="264" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
         <v>344</v>
       </c>
@@ -16949,7 +16863,7 @@
       <c r="D264" s="15">
         <v>0</v>
       </c>
-      <c r="E264" s="20" t="s">
+      <c r="E264" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F264" s="16" t="s">
@@ -16983,7 +16897,7 @@
       <c r="AK264" s="15"/>
       <c r="AL264" s="15"/>
     </row>
-    <row r="265" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
         <v>345</v>
       </c>
@@ -16996,7 +16910,7 @@
       <c r="D265" s="15">
         <v>0</v>
       </c>
-      <c r="E265" s="20" t="s">
+      <c r="E265" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F265" s="16" t="s">
@@ -17030,7 +16944,7 @@
       <c r="AK265" s="15"/>
       <c r="AL265" s="15"/>
     </row>
-    <row r="266" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
         <v>346</v>
       </c>
@@ -17043,7 +16957,7 @@
       <c r="D266" s="15">
         <v>0</v>
       </c>
-      <c r="E266" s="20" t="s">
+      <c r="E266" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F266" s="16" t="s">
@@ -17077,7 +16991,7 @@
       <c r="AK266" s="15"/>
       <c r="AL266" s="15"/>
     </row>
-    <row r="267" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
         <v>347</v>
       </c>
@@ -17090,7 +17004,7 @@
       <c r="D267" s="15">
         <v>0</v>
       </c>
-      <c r="E267" s="20" t="s">
+      <c r="E267" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F267" s="16" t="s">
@@ -17124,7 +17038,7 @@
       <c r="AK267" s="15"/>
       <c r="AL267" s="15"/>
     </row>
-    <row r="268" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
         <v>348</v>
       </c>
@@ -17137,7 +17051,7 @@
       <c r="D268" s="15">
         <v>0</v>
       </c>
-      <c r="E268" s="20" t="s">
+      <c r="E268" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F268" s="16" t="s">
@@ -17171,7 +17085,7 @@
       <c r="AK268" s="15"/>
       <c r="AL268" s="15"/>
     </row>
-    <row r="269" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
         <v>349</v>
       </c>
@@ -17184,7 +17098,7 @@
       <c r="D269" s="15">
         <v>0</v>
       </c>
-      <c r="E269" s="20" t="s">
+      <c r="E269" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F269" s="16" t="s">
@@ -17218,7 +17132,7 @@
       <c r="AK269" s="15"/>
       <c r="AL269" s="15"/>
     </row>
-    <row r="270" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
         <v>351</v>
       </c>
@@ -17231,7 +17145,7 @@
       <c r="D270" s="15">
         <v>0</v>
       </c>
-      <c r="E270" s="20" t="s">
+      <c r="E270" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F270" s="16" t="s">
@@ -17265,7 +17179,7 @@
       <c r="AK270" s="15"/>
       <c r="AL270" s="15"/>
     </row>
-    <row r="271" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
         <v>352</v>
       </c>
@@ -17278,7 +17192,7 @@
       <c r="D271" s="15">
         <v>0</v>
       </c>
-      <c r="E271" s="20" t="s">
+      <c r="E271" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F271" s="16" t="s">
@@ -17312,7 +17226,7 @@
       <c r="AK271" s="15"/>
       <c r="AL271" s="15"/>
     </row>
-    <row r="272" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
         <v>353</v>
       </c>
@@ -17325,7 +17239,7 @@
       <c r="D272" s="15">
         <v>0</v>
       </c>
-      <c r="E272" s="20" t="s">
+      <c r="E272" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F272" s="16" t="s">
@@ -17359,7 +17273,7 @@
       <c r="AK272" s="15"/>
       <c r="AL272" s="15"/>
     </row>
-    <row r="273" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
         <v>354</v>
       </c>
@@ -17372,7 +17286,7 @@
       <c r="D273" s="15">
         <v>0</v>
       </c>
-      <c r="E273" s="20" t="s">
+      <c r="E273" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F273" s="16" t="s">
@@ -17406,7 +17320,7 @@
       <c r="AK273" s="15"/>
       <c r="AL273" s="15"/>
     </row>
-    <row r="274" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
         <v>355</v>
       </c>
@@ -17419,7 +17333,7 @@
       <c r="D274" s="15">
         <v>0</v>
       </c>
-      <c r="E274" s="20" t="s">
+      <c r="E274" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F274" s="16" t="s">
@@ -17453,7 +17367,7 @@
       <c r="AK274" s="15"/>
       <c r="AL274" s="15"/>
     </row>
-    <row r="275" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
         <v>356</v>
       </c>
@@ -17466,7 +17380,7 @@
       <c r="D275" s="15">
         <v>0</v>
       </c>
-      <c r="E275" s="20" t="s">
+      <c r="E275" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F275" s="16" t="s">
@@ -17500,7 +17414,7 @@
       <c r="AK275" s="15"/>
       <c r="AL275" s="15"/>
     </row>
-    <row r="276" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
         <v>358</v>
       </c>
@@ -17513,7 +17427,7 @@
       <c r="D276" s="15">
         <v>0</v>
       </c>
-      <c r="E276" s="20" t="s">
+      <c r="E276" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F276" s="16" t="s">
@@ -17564,7 +17478,7 @@
       <c r="AK276" s="15"/>
       <c r="AL276" s="15"/>
     </row>
-    <row r="277" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
         <v>360</v>
       </c>
@@ -17577,7 +17491,7 @@
       <c r="D277" s="15">
         <v>0</v>
       </c>
-      <c r="E277" s="20" t="s">
+      <c r="E277" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F277" s="16" t="s">
@@ -17625,7 +17539,7 @@
       <c r="AK277" s="15"/>
       <c r="AL277" s="15"/>
     </row>
-    <row r="278" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
         <v>362</v>
       </c>
@@ -17638,7 +17552,7 @@
       <c r="D278" s="15">
         <v>0</v>
       </c>
-      <c r="E278" s="20" t="s">
+      <c r="E278" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F278" s="16" t="s">
@@ -17686,7 +17600,7 @@
       <c r="AK278" s="15"/>
       <c r="AL278" s="15"/>
     </row>
-    <row r="279" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
         <v>364</v>
       </c>
@@ -17699,7 +17613,7 @@
       <c r="D279" s="15">
         <v>0</v>
       </c>
-      <c r="E279" s="20" t="s">
+      <c r="E279" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F279" s="16" t="s">
@@ -17751,7 +17665,7 @@
       <c r="AK279" s="15"/>
       <c r="AL279" s="15"/>
     </row>
-    <row r="280" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
         <v>366</v>
       </c>
@@ -17764,7 +17678,7 @@
       <c r="D280" s="15">
         <v>0</v>
       </c>
-      <c r="E280" s="20" t="s">
+      <c r="E280" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F280" s="16" t="s">
@@ -17818,10 +17732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18100,13 +18014,13 @@
       <c r="B2" s="15">
         <v>3</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>44405</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>0.5</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>0.5625</v>
       </c>
     </row>
@@ -18117,13 +18031,13 @@
       <c r="B3" s="15">
         <v>3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>44405</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -18134,13 +18048,13 @@
       <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>44406</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>0.5</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>0.5625</v>
       </c>
     </row>
@@ -18151,13 +18065,13 @@
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>44406</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -18168,13 +18082,13 @@
       <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>44407</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -18185,13 +18099,13 @@
       <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>44408</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>0.5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>0.5625</v>
       </c>
     </row>
@@ -18202,13 +18116,13 @@
       <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>44409</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -18219,13 +18133,13 @@
       <c r="B9" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>44410</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>0.77083333333333337</v>
       </c>
     </row>
@@ -18253,117 +18167,117 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="22" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>673</v>
       </c>
     </row>
@@ -18386,7 +18300,7 @@
     <col min="2" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="22" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="15" t="s">
         <v>647</v>
@@ -18865,82 +18779,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="15" customWidth="1"/>
     <col min="3" max="4" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="15" customWidth="1"/>
     <col min="6" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="22" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:24" s="19" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="22" t="s">
         <v>673</v>
       </c>
     </row>
@@ -21018,7 +20932,7 @@
     <col min="2" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="22" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="19" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>46</v>
@@ -21160,1262 +21074,1262 @@
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
     </row>
     <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="23"/>
+      <c r="AP42" s="23"/>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="26"/>
-      <c r="AM45" s="26"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="26"/>
-      <c r="AM46" s="26"/>
-      <c r="AN46" s="26"/>
-      <c r="AO46" s="26"/>
-      <c r="AP46" s="26"/>
-      <c r="AQ46" s="26"/>
-      <c r="AR46" s="26"/>
-      <c r="AS46" s="26"/>
-      <c r="AT46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22432,80 +22346,80 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:24" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="22" t="s">
         <v>673</v>
       </c>
     </row>
